--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H2">
         <v>0.284303</v>
       </c>
       <c r="I2">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J2">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>0.06681136294611112</v>
+        <v>0.134057677893</v>
       </c>
       <c r="R2">
-        <v>0.6013022665150001</v>
+        <v>1.206519101037</v>
       </c>
       <c r="S2">
-        <v>0.005311542147420985</v>
+        <v>0.008126956469872855</v>
       </c>
       <c r="T2">
-        <v>0.005311542147420985</v>
+        <v>0.008126956469872857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H3">
         <v>0.284303</v>
       </c>
       <c r="I3">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J3">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
         <v>0.2215182204428889</v>
@@ -635,10 +632,10 @@
         <v>1.993663983986</v>
       </c>
       <c r="S3">
-        <v>0.01761082714706965</v>
+        <v>0.01342906249845657</v>
       </c>
       <c r="T3">
-        <v>0.01761082714706965</v>
+        <v>0.01342906249845657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H4">
         <v>0.284303</v>
       </c>
       <c r="I4">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J4">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>0.02001505755688889</v>
+        <v>0.02977230492766666</v>
       </c>
       <c r="R4">
-        <v>0.180135518012</v>
+        <v>0.267950744349</v>
       </c>
       <c r="S4">
-        <v>0.001591208697272359</v>
+        <v>0.001804881525309206</v>
       </c>
       <c r="T4">
-        <v>0.001591208697272359</v>
+        <v>0.001804881525309206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +711,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09476766666666668</v>
+        <v>2.187396333333333</v>
       </c>
       <c r="H5">
-        <v>0.284303</v>
+        <v>6.562189</v>
       </c>
       <c r="I5">
-        <v>0.02456723071903196</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J5">
-        <v>0.02456723071903196</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.0006748721435555557</v>
+        <v>3.094275541359</v>
       </c>
       <c r="R5">
-        <v>0.006073849292</v>
+        <v>27.848479872231</v>
       </c>
       <c r="S5">
-        <v>5.365272726896717E-05</v>
+        <v>0.1875837551840061</v>
       </c>
       <c r="T5">
-        <v>5.365272726896717E-05</v>
+        <v>0.1875837551840061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,43 +785,43 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H6">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I6">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J6">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>1.542118060660555</v>
+        <v>5.113011222146445</v>
       </c>
       <c r="R6">
-        <v>13.879062545945</v>
+        <v>46.017100999318</v>
       </c>
       <c r="S6">
-        <v>0.1225992812346066</v>
+        <v>0.3099652350052031</v>
       </c>
       <c r="T6">
-        <v>0.1225992812346066</v>
+        <v>0.3099652350052031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,13 +847,13 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H7">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I7">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J7">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>5.113011222146444</v>
+        <v>0.6871946194763333</v>
       </c>
       <c r="R7">
-        <v>46.01710099931799</v>
+        <v>6.184751575287</v>
       </c>
       <c r="S7">
-        <v>0.4064873609684099</v>
+        <v>0.04165968593960422</v>
       </c>
       <c r="T7">
-        <v>0.4064873609684099</v>
+        <v>0.04165968593960422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.187396333333333</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H8">
-        <v>6.562188999999999</v>
+        <v>5.323544</v>
       </c>
       <c r="I8">
-        <v>0.5670527964351189</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J8">
-        <v>0.567052796435119</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +924,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2112013333333334</v>
+        <v>1.414593</v>
       </c>
       <c r="N8">
-        <v>0.6336040000000001</v>
+        <v>4.243779</v>
       </c>
       <c r="O8">
-        <v>0.0647695589083904</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P8">
-        <v>0.06476955890839041</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q8">
-        <v>0.4619810221284444</v>
+        <v>2.510216025864</v>
       </c>
       <c r="R8">
-        <v>4.157829199156</v>
+        <v>22.591944232776</v>
       </c>
       <c r="S8">
-        <v>0.03672775950287194</v>
+        <v>0.1521764116222932</v>
       </c>
       <c r="T8">
-        <v>0.03672775950287195</v>
+        <v>0.1521764116222932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.187396333333333</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H9">
-        <v>6.562188999999999</v>
+        <v>5.323544</v>
       </c>
       <c r="I9">
-        <v>0.5670527964351189</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J9">
-        <v>0.567052796435119</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.007121333333333333</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N9">
-        <v>0.021364</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q9">
-        <v>0.01557717842177777</v>
+        <v>4.147905556147555</v>
       </c>
       <c r="R9">
-        <v>0.140194605796</v>
+        <v>37.331150005328</v>
       </c>
       <c r="S9">
-        <v>0.001238394729230491</v>
+        <v>0.2514577935839</v>
       </c>
       <c r="T9">
-        <v>0.001238394729230491</v>
+        <v>0.2514577935839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,232 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H10">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I10">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J10">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7050016666666666</v>
+        <v>0.314161</v>
       </c>
       <c r="N10">
-        <v>2.115005</v>
+        <v>0.942483</v>
       </c>
       <c r="O10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q10">
-        <v>1.110602285531111</v>
+        <v>0.5574833021946666</v>
       </c>
       <c r="R10">
-        <v>9.99542056978</v>
+        <v>5.017349719752</v>
       </c>
       <c r="S10">
-        <v>0.08829352655743022</v>
+        <v>0.03379621817135477</v>
       </c>
       <c r="T10">
-        <v>0.08829352655743024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.575318666666667</v>
-      </c>
-      <c r="H11">
-        <v>4.725956</v>
-      </c>
-      <c r="I11">
-        <v>0.408379972845849</v>
-      </c>
-      <c r="J11">
-        <v>0.408379972845849</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.337487333333333</v>
-      </c>
-      <c r="N11">
-        <v>7.012461999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="P11">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="Q11">
-        <v>3.682287429296889</v>
-      </c>
-      <c r="R11">
-        <v>33.140586863672</v>
-      </c>
-      <c r="S11">
-        <v>0.2927439887045044</v>
-      </c>
-      <c r="T11">
-        <v>0.2927439887045044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.575318666666667</v>
-      </c>
-      <c r="H12">
-        <v>4.725956</v>
-      </c>
-      <c r="I12">
-        <v>0.408379972845849</v>
-      </c>
-      <c r="J12">
-        <v>0.408379972845849</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.2112013333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.6336040000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.0647695589083904</v>
-      </c>
-      <c r="P12">
-        <v>0.06476955890839041</v>
-      </c>
-      <c r="Q12">
-        <v>0.3327094028248889</v>
-      </c>
-      <c r="R12">
-        <v>2.994384625424</v>
-      </c>
-      <c r="S12">
-        <v>0.02645059070824609</v>
-      </c>
-      <c r="T12">
-        <v>0.0264505907082461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.575318666666667</v>
-      </c>
-      <c r="H13">
-        <v>4.725956</v>
-      </c>
-      <c r="I13">
-        <v>0.408379972845849</v>
-      </c>
-      <c r="J13">
-        <v>0.408379972845849</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.021364</v>
-      </c>
-      <c r="O13">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P13">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q13">
-        <v>0.01121836933155556</v>
-      </c>
-      <c r="R13">
-        <v>0.100965323984</v>
-      </c>
-      <c r="S13">
-        <v>0.0008918668756683503</v>
-      </c>
-      <c r="T13">
-        <v>0.0008918668756683503</v>
+        <v>0.03379621817135477</v>
       </c>
     </row>
   </sheetData>
